--- a/09_Driver/08 驱动加载器(驱动隐藏).xlsx
+++ b/09_Driver/08 驱动加载器(驱动隐藏).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\09_Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE6DE81-FB03-46E4-AAE8-B8207B2963F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEFE0E4-CD07-47A4-B3CF-0E7DBAD3DA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1392" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1398,7 +1398,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1646,7 +1648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F7A28F-28B4-48D7-89EE-89AEE01BCF6D}">
   <dimension ref="B3:P88"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
